--- a/샘플데이터/BROCOLLI EVENT SAMPLE.xlsx
+++ b/샘플데이터/BROCOLLI EVENT SAMPLE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>E_NO</t>
   </si>
@@ -48,10 +48,6 @@
   </si>
   <si>
     <t>E_IMAGE2</t>
-  </si>
-  <si>
-    <t>SEQ_EVE.NEXTVAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>채소파티</t>
@@ -427,7 +423,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -465,81 +461,81 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/샘플데이터/BROCOLLI EVENT SAMPLE.xlsx
+++ b/샘플데이터/BROCOLLI EVENT SAMPLE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>E_NO</t>
   </si>
@@ -83,10 +83,6 @@
   </si>
   <si>
     <t>resources/event_upfiles/ef20201021.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysdate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +419,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -467,11 +463,11 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
+      <c r="C2" s="1">
+        <v>44134</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44165</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -493,11 +489,11 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
+      <c r="C3" s="1">
+        <v>44135</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44166</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -519,11 +515,11 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
+      <c r="C4" s="1">
+        <v>44136</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44167</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
